--- a/biology/Botanique/Famille_Perrodo/Famille_Perrodo.xlsx
+++ b/biology/Botanique/Famille_Perrodo/Famille_Perrodo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Perrodo est une famille de pétroliers français originaire de la Bretagne.
-Propriétaires de la compagnie pétrolière Perenco, cette famille bretonne investit depuis quelques années dans la viticulture, la charcuterie halal[1], et les médias, avec le site web Konbini. Les Perrodo sont une des familles les plus riches de France avec un patrimoine de 6 milliards d'euros[2], même s'il est difficile d'évaluer précisément ses avoirs offshore via ses holdings immatriculées au Luxembourg, aux Bahamas et à Guernesey[3].
+Propriétaires de la compagnie pétrolière Perenco, cette famille bretonne investit depuis quelques années dans la viticulture, la charcuterie halal, et les médias, avec le site web Konbini. Les Perrodo sont une des familles les plus riches de France avec un patrimoine de 6 milliards d'euros, même s'il est difficile d'évaluer précisément ses avoirs offshore via ses holdings immatriculées au Luxembourg, aux Bahamas et à Guernesey.
 </t>
         </is>
       </c>
@@ -512,16 +524,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le groupe Perenco fut fondé par Hubert Perrodo (1944-2006), auquel a succédé son fils François Perrodo[4].
-Hubert Perrodo
-Industriel, viticulteur et joueur de polo[5], Hubert Perrodo naît le 25 janvier 1944 à Larmor-Baden dans le Morbihan, en Bretagne. Il est le fils de Hubert Eugène-Félicien Perrodo et de Marie-Vincente Savary. Il épouse une Chinoise de Singapour, Ka Yee Wong, plus tard connue sous le nom de Carrie Perrodo. Ils ont trois enfants : François Hubert Marie Perrodo (né en 1977) ; Nathalie Perrodo-Samani (née en 1980) ; Bertrand Perrodo (né en 1984).
-Amateur de vins et d'art, il constitue un patrimoine viticole important en acquérant une collection de crus à Margaux : le château Labégorce en 1989, le château de l'Abbé Gorsse de Gorsse en 2002, le Château Labégorce-Zédé en 2005, et le Château Marquis d'Alesme Becker[6] en 2006, ainsi qu'une importante collection de tableaux. Au polo, il remporte le tournoi de la Reine (Queen's Cup) en 2004 avec l'équipe Labégorce[7].
-Il meurt le 29 décembre 2006 dans un accident de randonnée à skis, en descendant de la Dent du Villard au-dessus de Courchevel, à l'âge de 62 ans.
-François Perrodo
-François Perrodo est né le 14 février 1977[8],[9],[10]. Il est PDG de la société pétrolière Perenco depuis la mort de son père en 2006[11].
-Ingénieur de l'École nationale supérieure du pétrole et des moteurs (ENSPM) en 2002[12], il suit une formation à l'Institut européen d'administration des affaires (INSEAD) à Singapour[13]. Il pratique l'endurance automobile, une forme de compétition de sport automobile, et a participé à plusieurs reprises aux 24 Heures du Mans.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe Perenco fut fondé par Hubert Perrodo (1944-2006), auquel a succédé son fils François Perrodo.
 </t>
         </is>
       </c>
@@ -547,14 +554,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Activités</t>
+          <t>Famille</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vin : La famille est propriétaire dans le Bordelais d'environ 150 hectares de vignes via sa holding Pelwyn[14]. Elle détient le château La Tour de Mons (depuis 2019)[15], le Château Marquis d’Alesme (depuis 2006) ainsi que le Château Labégorce (depuis 1989), gérés par Nathalie Perrodo depuis 2006. Les vins sont vendus sous l’appellation d’origine contrôlée Margaux[16].
-Charcuterie : En 2018, via la holding britannique Perwyne, la famille Perrodo achète Ambre Délice[17], le leader français de la charcuterie halal [1].
-Médias : Le journal La Lettre A révèle que la famille Perrodo, dissimulée derrière des sociétés luxembourgeoises, est un des principaux actionnaires du média en ligne Konbini[18]. En colère après ces révélations, ils tentent de faire pression sur le journal. En 2022, Konbini est condamné à 6 000 euros de dommages-intérêts pour procédure abusive après avoir tenté une procédure bâillon pour avoir révélé ces informations[19]. Selon Capital, la discrétion de cet investissement réalisé « de manière opaque, via une holding luxembourgeoise […] s’explique peut-être par la réputation controversée de cette famille, en raison de leur utilisation des paradis fiscaux et d’accusations de corruption »[20].</t>
+          <t>Hubert Perrodo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Industriel, viticulteur et joueur de polo, Hubert Perrodo naît le 25 janvier 1944 à Larmor-Baden dans le Morbihan, en Bretagne. Il est le fils de Hubert Eugène-Félicien Perrodo et de Marie-Vincente Savary. Il épouse une Chinoise de Singapour, Ka Yee Wong, plus tard connue sous le nom de Carrie Perrodo. Ils ont trois enfants : François Hubert Marie Perrodo (né en 1977) ; Nathalie Perrodo-Samani (née en 1980) ; Bertrand Perrodo (né en 1984).
+Amateur de vins et d'art, il constitue un patrimoine viticole important en acquérant une collection de crus à Margaux : le château Labégorce en 1989, le château de l'Abbé Gorsse de Gorsse en 2002, le Château Labégorce-Zédé en 2005, et le Château Marquis d'Alesme Becker en 2006, ainsi qu'une importante collection de tableaux. Au polo, il remporte le tournoi de la Reine (Queen's Cup) en 2004 avec l'équipe Labégorce.
+Il meurt le 29 décembre 2006 dans un accident de randonnée à skis, en descendant de la Dent du Villard au-dessus de Courchevel, à l'âge de 62 ans.
+</t>
         </is>
       </c>
     </row>
@@ -579,14 +593,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>François Perrodo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Perrodo est né le 14 février 1977. Il est PDG de la société pétrolière Perenco depuis la mort de son père en 2006.
+Ingénieur de l'École nationale supérieure du pétrole et des moteurs (ENSPM) en 2002, il suit une formation à l'Institut européen d'administration des affaires (INSEAD) à Singapour. Il pratique l'endurance automobile, une forme de compétition de sport automobile, et a participé à plusieurs reprises aux 24 Heures du Mans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Famille_Perrodo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Famille_Perrodo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vin : La famille est propriétaire dans le Bordelais d'environ 150 hectares de vignes via sa holding Pelwyn. Elle détient le château La Tour de Mons (depuis 2019), le Château Marquis d’Alesme (depuis 2006) ainsi que le Château Labégorce (depuis 1989), gérés par Nathalie Perrodo depuis 2006. Les vins sont vendus sous l’appellation d’origine contrôlée Margaux.
+Charcuterie : En 2018, via la holding britannique Perwyne, la famille Perrodo achète Ambre Délice, le leader français de la charcuterie halal .
+Médias : Le journal La Lettre A révèle que la famille Perrodo, dissimulée derrière des sociétés luxembourgeoises, est un des principaux actionnaires du média en ligne Konbini. En colère après ces révélations, ils tentent de faire pression sur le journal. En 2022, Konbini est condamné à 6 000 euros de dommages-intérêts pour procédure abusive après avoir tenté une procédure bâillon pour avoir révélé ces informations. Selon Capital, la discrétion de cet investissement réalisé « de manière opaque, via une holding luxembourgeoise […] s’explique peut-être par la réputation controversée de cette famille, en raison de leur utilisation des paradis fiscaux et d’accusations de corruption ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Famille_Perrodo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Famille_Perrodo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Fortune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille Perrodo se classe au 13e rang des fortunes de France au palmarès du magazine Challenges[21] en 2013. Elle se place au 19e rang de ce classement en 2021[22]. Cette famille bretonne tire principalement sa fortune de Perenco qu'elle détient. Perenco produirait 210 000 barils de pétrole par jour et génèrerait un chiffre d'affaires annuel de près de 7 milliards de dollars[4].
-Les Perrodo sont mis en cause par une enquête du journal Le Monde, faisant partie des 40 familles les plus riches de France qui auraient placé leur argent au Luxembourg[23]. Ils détiendraient des actifs dans plusieurs autres paradis fiscaux[23], ce qui rend l'estimation de leur fortune réelle difficile.
-En 2022, une enquête des médias d'investigation Disclose et Investigate Europe mettent en cause la famille Perrodo sur leur fortune placée dans des paradis fiscaux avant d'être réinvestie dans des domaines viticoles, l'immobilier, des start-ups européennes ou encore le média en ligne Konbini[24],[25].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Perrodo se classe au 13e rang des fortunes de France au palmarès du magazine Challenges en 2013. Elle se place au 19e rang de ce classement en 2021. Cette famille bretonne tire principalement sa fortune de Perenco qu'elle détient. Perenco produirait 210 000 barils de pétrole par jour et génèrerait un chiffre d'affaires annuel de près de 7 milliards de dollars.
+Les Perrodo sont mis en cause par une enquête du journal Le Monde, faisant partie des 40 familles les plus riches de France qui auraient placé leur argent au Luxembourg. Ils détiendraient des actifs dans plusieurs autres paradis fiscaux, ce qui rend l'estimation de leur fortune réelle difficile.
+En 2022, une enquête des médias d'investigation Disclose et Investigate Europe mettent en cause la famille Perrodo sur leur fortune placée dans des paradis fiscaux avant d'être réinvestie dans des domaines viticoles, l'immobilier, des start-ups européennes ou encore le média en ligne Konbini,.
 </t>
         </is>
       </c>
